--- a/06b.xlsx
+++ b/06b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF06BF7-7B84-4491-A9DB-34F396A2AD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC28A0-E14E-4CD1-9D09-676F2D863990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1418" windowWidth="28230" windowHeight="15097" xr2:uid="{C9FEC2C0-209B-494F-A323-D6A52A51E084}"/>
+    <workbookView xWindow="5542" yWindow="4777" windowWidth="28231" windowHeight="15098" xr2:uid="{C9FEC2C0-209B-494F-A323-D6A52A51E084}"/>
   </bookViews>
   <sheets>
     <sheet name="順位（PERCENTRANK.EXC）" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="8" cm="1">
-        <f t="array" ref="F4:F15">_xlfn.ANCHORARRAY(D4)/(D16+1)</f>
+        <f t="array" ref="F4:F15">D4:D15/(D16+1)</f>
         <v>0.15384615384615385</v>
       </c>
       <c r="G4" s="8" cm="1">
@@ -2013,7 +2013,7 @@
         <v>0.153</v>
       </c>
       <c r="H4" s="8" cm="1">
-        <f t="array" ref="H4:H15">(_xlfn.ANCHORARRAY(D4)-1)/(D16-1)</f>
+        <f t="array" ref="H4:H15">(D4:D15-1)/(D16-1)</f>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="I4" s="8" cm="1">
@@ -2026,8 +2026,8 @@
       <c r="L4">
         <v>69</v>
       </c>
-      <c r="M4" s="8" cm="1">
-        <f t="array" ref="M4">_xlfn.XLOOKUP(L4,$B$4:$B$15,_xlfn.ANCHORARRAY(F$4),,0,1)</f>
+      <c r="M4" s="8">
+        <f>_xlfn.XLOOKUP(L4,$B$4:$B$15,F$4:F$15,,0,1)</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="Q4" s="12" t="s">
@@ -2036,8 +2036,8 @@
       <c r="R4">
         <v>69</v>
       </c>
-      <c r="S4" s="8" cm="1">
-        <f t="array" ref="S4">_xlfn.XLOOKUP(R4,$B$4:$B$15,_xlfn.ANCHORARRAY(H$4),,0,1)</f>
+      <c r="S4" s="8">
+        <f>_xlfn.XLOOKUP(R4,$B$4:$B$15,H$4:H$15,,0,1)</f>
         <v>0.54545454545454541</v>
       </c>
     </row>
@@ -2118,8 +2118,8 @@
       <c r="L6" s="3">
         <v>78</v>
       </c>
-      <c r="M6" s="11" cm="1">
-        <f t="array" ref="M6">_xlfn.XLOOKUP(L6,$B$4:$B$15,_xlfn.ANCHORARRAY(F$4),,0,1)</f>
+      <c r="M6" s="11">
+        <f>_xlfn.XLOOKUP(L6,$B$4:$B$15,F$4:F$15,,0,1)</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="N6" s="3"/>
@@ -2130,8 +2130,8 @@
       <c r="R6" s="3">
         <v>78</v>
       </c>
-      <c r="S6" s="11" cm="1">
-        <f t="array" ref="S6">_xlfn.XLOOKUP(R6,$B$4:$B$15,_xlfn.ANCHORARRAY(H$4),,0,1)</f>
+      <c r="S6" s="11">
+        <f>_xlfn.XLOOKUP(R6,$B$4:$B$15,H$4:H$15,,0,1)</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="T6" s="3"/>
@@ -2476,8 +2476,8 @@
       <c r="L20">
         <v>78</v>
       </c>
-      <c r="M20" s="8" cm="1">
-        <f t="array" ref="M20">_xlfn.XLOOKUP(L20,$B$4:$B$15,_xlfn.ANCHORARRAY(F$4),,0,1)</f>
+      <c r="M20" s="8">
+        <f>_xlfn.XLOOKUP(L20,$B$4:$B$15,F$4:F$15,,0,1)</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="N20" s="8">
@@ -2490,8 +2490,8 @@
       <c r="R20">
         <v>78</v>
       </c>
-      <c r="S20" s="8" cm="1">
-        <f t="array" ref="S20">_xlfn.XLOOKUP(R20,$B$4:$B$15,_xlfn.ANCHORARRAY(H$4),,0,1)</f>
+      <c r="S20" s="8">
+        <f>_xlfn.XLOOKUP(R20,$B$4:$B$15,H$4:H$15,,0,1)</f>
         <v>0.63636363636363635</v>
       </c>
       <c r="T20" s="8">
@@ -2506,8 +2506,8 @@
       <c r="L21">
         <v>78</v>
       </c>
-      <c r="M21" s="8" cm="1">
-        <f t="array" ref="M21">_xlfn.XLOOKUP(L21,$B$4:$B$15,_xlfn.ANCHORARRAY(F$4),,0,1)</f>
+      <c r="M21" s="8">
+        <f>_xlfn.XLOOKUP(L21,$B$4:$B$15,F$4:F$15,,0,1)</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="Q21" s="12" t="s">
@@ -2516,8 +2516,8 @@
       <c r="R21">
         <v>78</v>
       </c>
-      <c r="S21" s="8" cm="1">
-        <f t="array" ref="S21">_xlfn.XLOOKUP(R21,$B$4:$B$15,_xlfn.ANCHORARRAY(H$4),,0,1)</f>
+      <c r="S21" s="8">
+        <f>_xlfn.XLOOKUP(R21,$B$4:$B$15,H$4:H$15,,0,1)</f>
         <v>0.63636363636363635</v>
       </c>
     </row>
@@ -2550,8 +2550,8 @@
       <c r="L23" s="3">
         <v>82</v>
       </c>
-      <c r="M23" s="11" cm="1">
-        <f t="array" ref="M23">_xlfn.XLOOKUP(L23,$B$4:$B$15,_xlfn.ANCHORARRAY(F$4),,0,1)</f>
+      <c r="M23" s="11">
+        <f>_xlfn.XLOOKUP(L23,$B$4:$B$15,F$4:F$15,,0,1)</f>
         <v>0.76923076923076927</v>
       </c>
       <c r="N23" s="3"/>
@@ -2562,8 +2562,8 @@
       <c r="R23" s="3">
         <v>82</v>
       </c>
-      <c r="S23" s="11" cm="1">
-        <f t="array" ref="S23">_xlfn.XLOOKUP(R23,$B$4:$B$15,_xlfn.ANCHORARRAY(H$4),,0,1)</f>
+      <c r="S23" s="8">
+        <f>_xlfn.XLOOKUP(R23,$B$4:$B$15,H$4:H$15,,0,1)</f>
         <v>0.81818181818181823</v>
       </c>
       <c r="T23" s="3"/>

--- a/06b.xlsx
+++ b/06b.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BC28A0-E14E-4CD1-9D09-676F2D863990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4BC9C6-DE22-44F0-A349-F53FB9F88726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5542" yWindow="4777" windowWidth="28231" windowHeight="15098" xr2:uid="{C9FEC2C0-209B-494F-A323-D6A52A51E084}"/>
+    <workbookView xWindow="667" yWindow="-98" windowWidth="37831" windowHeight="20701" xr2:uid="{C9FEC2C0-209B-494F-A323-D6A52A51E084}"/>
   </bookViews>
   <sheets>
     <sheet name="順位（PERCENTRANK.EXC）" sheetId="1" r:id="rId1"/>
     <sheet name="順位（PERCENTRANK.EXC答え）" sheetId="3" r:id="rId2"/>
-    <sheet name="順位（PERCENTRANK.INC関数）" sheetId="5" r:id="rId3"/>
-    <sheet name="順位（PERCENTRANK.INC関数答え）" sheetId="4" r:id="rId4"/>
+    <sheet name="順位（PERCENTRANK.INC）" sheetId="5" r:id="rId3"/>
+    <sheet name="順位（PERCENTRANK.INC答え）" sheetId="4" r:id="rId4"/>
     <sheet name="計算方法" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
